--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>MapId</t>
-  </si>
-  <si>
     <t>AttrId</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
   </si>
   <si>
     <t>MaxLevel</t>
-  </si>
-  <si>
-    <t>StartRate</t>
-  </si>
-  <si>
-    <t>Rate</t>
   </si>
   <si>
     <t>Des</t>
@@ -195,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,7 +207,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -687,142 +683,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1142,24 +1139,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M24"/>
+  <dimension ref="C3:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:13">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1184,17 +1180,8 @@
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:13">
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1219,719 +1206,530 @@
       <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C6" s="3">
+        <v>40000056</v>
+      </c>
+      <c r="D6" s="3">
+        <v>40000056</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>150000000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>150000000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C7" s="3">
+        <v>40000057</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40000057</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>150000000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>150000000</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:10">
+      <c r="C8" s="3">
+        <v>40000058</v>
+      </c>
+      <c r="D8" s="3">
+        <v>40000058</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>150000000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>150000000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:10">
+      <c r="C9" s="3">
+        <v>40000059</v>
+      </c>
+      <c r="D9" s="3">
+        <v>40000059</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:10">
+      <c r="C10" s="3">
+        <v>40000060</v>
+      </c>
+      <c r="D10" s="3">
+        <v>40000060</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:10">
+      <c r="C11" s="3">
+        <v>40000061</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40000061</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
+      <c r="H11" s="3">
+        <v>100</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:10">
+      <c r="C12" s="3">
+        <v>40000062</v>
+      </c>
+      <c r="D12" s="3">
+        <v>40000062</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:10">
+      <c r="C13" s="3">
+        <v>40000063</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40000063</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:10">
+      <c r="C14" s="3">
+        <v>40000064</v>
+      </c>
+      <c r="D14" s="3">
+        <v>40000064</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:10">
+      <c r="C15" s="3">
+        <v>40000065</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40000065</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C6" s="1">
-        <v>40000056</v>
-      </c>
-      <c r="D6" s="1">
-        <v>40000056</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1056</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>150000000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>150000000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L6" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C7" s="1">
-        <v>40000057</v>
-      </c>
-      <c r="D7" s="1">
-        <v>40000057</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1057</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>150000000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>150000000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:13">
-      <c r="C8" s="1">
-        <v>40000058</v>
-      </c>
-      <c r="D8" s="1">
-        <v>40000058</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1058</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>150000000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>150000000</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L8" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:13">
-      <c r="C9" s="1">
-        <v>40000059</v>
-      </c>
-      <c r="D9" s="1">
-        <v>40000059</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="G15" s="3">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:10">
+      <c r="C16" s="3">
+        <v>40000066</v>
+      </c>
+      <c r="D16" s="3">
+        <v>40000066</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="1">
-        <v>1059</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L9" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:13">
-      <c r="C10" s="1">
-        <v>40000060</v>
-      </c>
-      <c r="D10" s="1">
-        <v>40000060</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1060</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:13">
-      <c r="C11" s="1">
-        <v>40000061</v>
-      </c>
-      <c r="D11" s="1">
-        <v>40000061</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1061</v>
-      </c>
-      <c r="G11" s="1">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1">
-        <v>100</v>
-      </c>
-      <c r="I11" s="1">
-        <v>100</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5</v>
-      </c>
-      <c r="K11" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L11" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:13">
-      <c r="C12" s="1">
-        <v>40000062</v>
-      </c>
-      <c r="D12" s="1">
-        <v>40000062</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1062</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="H16" s="3">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:10">
+      <c r="C17" s="3">
+        <v>40000067</v>
+      </c>
+      <c r="D17" s="3">
+        <v>40000067</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="1">
+      <c r="F17" s="3">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3">
         <v>10</v>
       </c>
-      <c r="I12" s="1">
+      <c r="H17" s="3">
         <v>10</v>
       </c>
-      <c r="J12" s="1">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L12" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:13">
-      <c r="C13" s="1">
-        <v>40000063</v>
-      </c>
-      <c r="D13" s="1">
-        <v>40000063</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1063</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1">
+    </row>
+    <row r="18" customHeight="1" spans="3:10">
+      <c r="C18" s="3">
+        <v>40000068</v>
+      </c>
+      <c r="D18" s="3">
+        <v>40000068</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2011</v>
+      </c>
+      <c r="G18" s="3">
         <v>10</v>
       </c>
-      <c r="I13" s="1">
+      <c r="H18" s="3">
         <v>10</v>
       </c>
-      <c r="J13" s="1">
-        <v>5</v>
-      </c>
-      <c r="K13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:13">
-      <c r="C14" s="1">
-        <v>40000064</v>
-      </c>
-      <c r="D14" s="1">
-        <v>40000064</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1064</v>
-      </c>
-      <c r="G14" s="1">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:10">
+      <c r="C19" s="3">
+        <v>40000069</v>
+      </c>
+      <c r="D19" s="3">
+        <v>40000069</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2004</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:10">
+      <c r="C20" s="3">
+        <v>40000070</v>
+      </c>
+      <c r="D20" s="3">
+        <v>40000070</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:10">
+      <c r="C21" s="3">
+        <v>40000071</v>
+      </c>
+      <c r="D21" s="3">
+        <v>40000071</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2006</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:10">
+      <c r="C22" s="3">
+        <v>40000072</v>
+      </c>
+      <c r="D22" s="3">
+        <v>40000072</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G22" s="3">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:10">
+      <c r="C23" s="3">
+        <v>40000073</v>
+      </c>
+      <c r="D23" s="3">
+        <v>40000073</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2002</v>
+      </c>
+      <c r="G23" s="3">
         <v>10</v>
       </c>
-      <c r="I14" s="1">
+      <c r="H23" s="3">
         <v>10</v>
       </c>
-      <c r="J14" s="1">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L14" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:13">
-      <c r="C15" s="1">
-        <v>40000065</v>
-      </c>
-      <c r="D15" s="1">
-        <v>40000065</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1065</v>
-      </c>
-      <c r="G15" s="1">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
-        <v>5</v>
-      </c>
-      <c r="K15" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L15" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:13">
-      <c r="C16" s="1">
-        <v>40000066</v>
-      </c>
-      <c r="D16" s="1">
-        <v>40000066</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1066</v>
-      </c>
-      <c r="G16" s="1">
-        <v>9</v>
-      </c>
-      <c r="H16" s="1">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1">
-        <v>20</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:13">
-      <c r="C17" s="1">
-        <v>40000067</v>
-      </c>
-      <c r="D17" s="1">
-        <v>40000067</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1067</v>
-      </c>
-      <c r="G17" s="1">
-        <v>7</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
-        <v>5</v>
-      </c>
-      <c r="K17" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L17" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:13">
-      <c r="C18" s="1">
-        <v>40000068</v>
-      </c>
-      <c r="D18" s="1">
-        <v>40000068</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1068</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H18" s="1">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
-        <v>5</v>
-      </c>
-      <c r="K18" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L18" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:13">
-      <c r="C19" s="1">
-        <v>40000069</v>
-      </c>
-      <c r="D19" s="1">
-        <v>40000069</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1069</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H19" s="1">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1">
-        <v>5</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5</v>
-      </c>
-      <c r="K19" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L19" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:13">
-      <c r="C20" s="1">
-        <v>40000070</v>
-      </c>
-      <c r="D20" s="1">
-        <v>40000070</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1070</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2005</v>
-      </c>
-      <c r="H20" s="1">
-        <v>5</v>
-      </c>
-      <c r="I20" s="1">
-        <v>5</v>
-      </c>
-      <c r="J20" s="1">
-        <v>5</v>
-      </c>
-      <c r="K20" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L20" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:13">
-      <c r="C21" s="1">
-        <v>40000071</v>
-      </c>
-      <c r="D21" s="1">
-        <v>40000071</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1071</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2006</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5</v>
-      </c>
-      <c r="I21" s="1">
-        <v>5</v>
-      </c>
-      <c r="J21" s="1">
-        <v>5</v>
-      </c>
-      <c r="K21" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L21" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:13">
-      <c r="C22" s="1">
-        <v>40000072</v>
-      </c>
-      <c r="D22" s="1">
-        <v>40000072</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="1">
-        <v>1072</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2003</v>
-      </c>
-      <c r="H22" s="1">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1">
-        <v>20</v>
-      </c>
-      <c r="J22" s="1">
-        <v>5</v>
-      </c>
-      <c r="K22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M22" s="1" t="s">
+    </row>
+    <row r="24" customHeight="1" spans="3:10">
+      <c r="C24" s="3">
+        <v>40000074</v>
+      </c>
+      <c r="D24" s="3">
+        <v>40000074</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:13">
-      <c r="C23" s="1">
-        <v>40000073</v>
-      </c>
-      <c r="D23" s="1">
-        <v>40000073</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F24" s="3">
+        <v>2001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1073</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2002</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <v>5</v>
-      </c>
-      <c r="K23" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L23" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:13">
-      <c r="C24" s="1">
-        <v>40000074</v>
-      </c>
-      <c r="D24" s="1">
-        <v>40000074</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1074</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H24" s="1">
-        <v>5</v>
-      </c>
-      <c r="I24" s="1">
-        <v>5</v>
-      </c>
-      <c r="J24" s="1">
-        <v>5</v>
-      </c>
-      <c r="K24" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L24" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 F3 D4 D5 C4:C5 E4:E5 F4:F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -1142,7 +1142,7 @@
   <dimension ref="C3:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1253,7 +1253,7 @@
         <v>150000000</v>
       </c>
       <c r="I6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>12</v>
@@ -1279,7 +1279,7 @@
         <v>150000000</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -1305,7 +1305,7 @@
         <v>150000000</v>
       </c>
       <c r="I8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>16</v>
@@ -1331,7 +1331,7 @@
         <v>1000000000</v>
       </c>
       <c r="I9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>18</v>
@@ -1357,7 +1357,7 @@
         <v>100000000</v>
       </c>
       <c r="I10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>20</v>
@@ -1383,7 +1383,7 @@
         <v>100</v>
       </c>
       <c r="I11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>22</v>
@@ -1409,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>24</v>
@@ -1435,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>26</v>
@@ -1461,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>28</v>
@@ -1487,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>30</v>
@@ -1513,7 +1513,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>32</v>
@@ -1539,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>34</v>
@@ -1565,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>36</v>
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>38</v>
@@ -1617,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>40</v>
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>42</v>
@@ -1669,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>44</v>
@@ -1695,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>46</v>
@@ -1721,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>48</v>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -62,76 +62,88 @@
     <t>long</t>
   </si>
   <si>
+    <t>钳虫心脏</t>
+  </si>
+  <si>
+    <t>生命基础</t>
+  </si>
+  <si>
+    <t>蜈蚣心脏</t>
+  </si>
+  <si>
+    <t>生命比例</t>
+  </si>
+  <si>
+    <t>白猪心脏</t>
+  </si>
+  <si>
+    <t>生命倍率</t>
+  </si>
+  <si>
+    <t>猪王之甲</t>
+  </si>
+  <si>
+    <t>防御基础</t>
+  </si>
+  <si>
+    <t>蝎王之甲</t>
+  </si>
+  <si>
+    <t>防御比例</t>
+  </si>
+  <si>
     <t>沃玛宝剑</t>
   </si>
   <si>
-    <t>物攻</t>
+    <t>物攻基础</t>
   </si>
   <si>
     <t>沃玛号角</t>
   </si>
   <si>
-    <t>魔法</t>
+    <t>魔法基础</t>
   </si>
   <si>
     <t>祖玛号角</t>
   </si>
   <si>
-    <t>道术</t>
-  </si>
-  <si>
-    <t>猪王之心</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>树妖之皮</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>虹魔宝典</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>尸王獠牙</t>
+    <t>道术基础</t>
+  </si>
+  <si>
+    <t>虹猪之甲</t>
+  </si>
+  <si>
+    <t>树妖之心</t>
+  </si>
+  <si>
+    <t>虹魔之心</t>
+  </si>
+  <si>
+    <t>尸王之心</t>
+  </si>
+  <si>
+    <t>黄泉法杖</t>
   </si>
   <si>
     <t>物伤</t>
   </si>
   <si>
-    <t>黄泉法杖</t>
+    <t>牛魔权杖</t>
   </si>
   <si>
     <t>法伤</t>
   </si>
   <si>
-    <t>牛魔权杖</t>
+    <t>金刚战锤</t>
   </si>
   <si>
     <t>道伤</t>
   </si>
   <si>
-    <t>金刚战锤</t>
-  </si>
-  <si>
-    <t>增伤</t>
-  </si>
-  <si>
-    <t>巨人拳套</t>
-  </si>
-  <si>
-    <t>爆伤</t>
-  </si>
-  <si>
-    <t>幸运之心</t>
-  </si>
-  <si>
-    <t>幸运</t>
+    <t>巨人之心</t>
+  </si>
+  <si>
+    <t>恶魔之心</t>
   </si>
   <si>
     <t>魔龙宝甲</t>
@@ -159,9 +171,6 @@
   </si>
   <si>
     <t>梦魇草帽</t>
-  </si>
-  <si>
-    <t>生命倍率</t>
   </si>
   <si>
     <t>梦魇猫爪</t>
@@ -1139,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J24"/>
+  <dimension ref="C3:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1235,22 +1244,22 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C6" s="3">
-        <v>40000056</v>
+        <v>40000051</v>
       </c>
       <c r="D6" s="3">
-        <v>40000056</v>
+        <v>40000051</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>150000000</v>
+        <v>800000000</v>
       </c>
       <c r="H6" s="3">
-        <v>150000000</v>
+        <v>800000000</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
@@ -1261,22 +1270,22 @@
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C7" s="3">
-        <v>40000057</v>
+        <v>40000052</v>
       </c>
       <c r="D7" s="3">
-        <v>40000057</v>
+        <v>40000052</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3">
-        <v>150000000</v>
+        <v>100</v>
       </c>
       <c r="H7" s="3">
-        <v>150000000</v>
+        <v>100</v>
       </c>
       <c r="I7" s="3">
         <v>4</v>
@@ -1285,24 +1294,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:10">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="3">
-        <v>40000058</v>
+        <v>40000053</v>
       </c>
       <c r="D8" s="3">
-        <v>40000058</v>
+        <v>40000053</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
+        <v>2003</v>
       </c>
       <c r="G8" s="3">
-        <v>150000000</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3">
-        <v>150000000</v>
+        <v>5</v>
       </c>
       <c r="I8" s="3">
         <v>4</v>
@@ -1311,24 +1320,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:10">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="3">
-        <v>40000059</v>
+        <v>40000054</v>
       </c>
       <c r="D9" s="3">
-        <v>40000059</v>
+        <v>40000054</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>1000000000</v>
+        <v>80000000</v>
       </c>
       <c r="H9" s="3">
-        <v>1000000000</v>
+        <v>80000000</v>
       </c>
       <c r="I9" s="3">
         <v>4</v>
@@ -1337,24 +1346,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:10">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="3">
-        <v>40000060</v>
+        <v>40000055</v>
       </c>
       <c r="D10" s="3">
-        <v>40000060</v>
+        <v>40000055</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3">
-        <v>100000000</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100000000</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>4</v>
@@ -1363,24 +1372,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:10">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C11" s="3">
-        <v>40000061</v>
+        <v>40000056</v>
       </c>
       <c r="D11" s="3">
-        <v>40000061</v>
+        <v>40000056</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
-        <v>100</v>
+        <v>150000000</v>
       </c>
       <c r="H11" s="3">
-        <v>100</v>
+        <v>150000000</v>
       </c>
       <c r="I11" s="3">
         <v>4</v>
@@ -1389,24 +1398,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:10">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="3">
-        <v>40000062</v>
+        <v>40000057</v>
       </c>
       <c r="D12" s="3">
-        <v>40000062</v>
+        <v>40000057</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>10</v>
+        <v>150000000</v>
       </c>
       <c r="H12" s="3">
-        <v>10</v>
+        <v>150000000</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
@@ -1417,22 +1426,22 @@
     </row>
     <row r="13" customHeight="1" spans="3:10">
       <c r="C13" s="3">
-        <v>40000063</v>
+        <v>40000058</v>
       </c>
       <c r="D13" s="3">
-        <v>40000063</v>
+        <v>40000058</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="3">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>10</v>
+        <v>150000000</v>
       </c>
       <c r="H13" s="3">
-        <v>10</v>
+        <v>150000000</v>
       </c>
       <c r="I13" s="3">
         <v>4</v>
@@ -1443,120 +1452,120 @@
     </row>
     <row r="14" customHeight="1" spans="3:10">
       <c r="C14" s="3">
-        <v>40000064</v>
+        <v>40000059</v>
       </c>
       <c r="D14" s="3">
-        <v>40000064</v>
+        <v>40000059</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>100000000</v>
       </c>
       <c r="H14" s="3">
-        <v>10</v>
+        <v>100000000</v>
       </c>
       <c r="I14" s="3">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:10">
       <c r="C15" s="3">
-        <v>40000065</v>
+        <v>40000060</v>
       </c>
       <c r="D15" s="3">
-        <v>40000065</v>
+        <v>40000060</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:10">
       <c r="C16" s="3">
-        <v>40000066</v>
+        <v>40000061</v>
       </c>
       <c r="D16" s="3">
-        <v>40000066</v>
+        <v>40000061</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G16" s="3">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="H16" s="3">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:10">
       <c r="C17" s="3">
-        <v>40000067</v>
+        <v>40000062</v>
       </c>
       <c r="D17" s="3">
-        <v>40000067</v>
+        <v>40000062</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17" s="3">
-        <v>7</v>
+        <v>2003</v>
       </c>
       <c r="G17" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I17" s="3">
         <v>4</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:10">
       <c r="C18" s="3">
-        <v>40000068</v>
+        <v>40000063</v>
       </c>
       <c r="D18" s="3">
-        <v>40000068</v>
+        <v>40000063</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3">
-        <v>2011</v>
+        <v>33</v>
       </c>
       <c r="G18" s="3">
         <v>10</v>
@@ -1568,125 +1577,125 @@
         <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:10">
       <c r="C19" s="3">
-        <v>40000069</v>
+        <v>40000064</v>
       </c>
       <c r="D19" s="3">
-        <v>40000069</v>
+        <v>40000064</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3">
-        <v>2004</v>
+        <v>34</v>
       </c>
       <c r="G19" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I19" s="3">
         <v>4</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:10">
       <c r="C20" s="3">
-        <v>40000070</v>
+        <v>40000065</v>
       </c>
       <c r="D20" s="3">
-        <v>40000070</v>
+        <v>40000065</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3">
-        <v>2005</v>
+        <v>35</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I20" s="3">
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:10">
       <c r="C21" s="3">
-        <v>40000071</v>
+        <v>40000066</v>
       </c>
       <c r="D21" s="3">
-        <v>40000071</v>
+        <v>40000066</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F21" s="3">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>5</v>
+        <v>1500000000</v>
       </c>
       <c r="H21" s="3">
-        <v>5</v>
+        <v>1500000000</v>
       </c>
       <c r="I21" s="3">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:10">
       <c r="C22" s="3">
-        <v>40000072</v>
+        <v>40000067</v>
       </c>
       <c r="D22" s="3">
-        <v>40000072</v>
+        <v>40000067</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F22" s="3">
         <v>2003</v>
       </c>
       <c r="G22" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I22" s="3">
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:10">
       <c r="C23" s="3">
-        <v>40000073</v>
+        <v>40000068</v>
       </c>
       <c r="D23" s="3">
-        <v>40000073</v>
+        <v>40000068</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F23" s="3">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="G23" s="3">
         <v>10</v>
@@ -1698,21 +1707,21 @@
         <v>4</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:10">
       <c r="C24" s="3">
-        <v>40000074</v>
+        <v>40000069</v>
       </c>
       <c r="D24" s="3">
-        <v>40000074</v>
+        <v>40000069</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
@@ -1724,7 +1733,137 @@
         <v>4</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:10">
+      <c r="C25" s="3">
+        <v>40000070</v>
+      </c>
+      <c r="D25" s="3">
+        <v>40000070</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2005</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:10">
+      <c r="C26" s="3">
+        <v>40000071</v>
+      </c>
+      <c r="D26" s="3">
+        <v>40000071</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2006</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:10">
+      <c r="C27" s="3">
+        <v>40000072</v>
+      </c>
+      <c r="D27" s="3">
+        <v>40000072</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2003</v>
+      </c>
+      <c r="G27" s="3">
+        <v>20</v>
+      </c>
+      <c r="H27" s="3">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:10">
+      <c r="C28" s="3">
+        <v>40000073</v>
+      </c>
+      <c r="D28" s="3">
+        <v>40000073</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2002</v>
+      </c>
+      <c r="G28" s="3">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3">
+        <v>10</v>
+      </c>
+      <c r="I28" s="3">
+        <v>4</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:10">
+      <c r="C29" s="3">
+        <v>40000074</v>
+      </c>
+      <c r="D29" s="3">
+        <v>40000074</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2001</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -62,43 +62,43 @@
     <t>long</t>
   </si>
   <si>
-    <t>钳虫心脏</t>
+    <t>触龙之心</t>
   </si>
   <si>
     <t>生命基础</t>
   </si>
   <si>
-    <t>蜈蚣心脏</t>
+    <t>白猪之心</t>
   </si>
   <si>
     <t>生命比例</t>
   </si>
   <si>
-    <t>白猪心脏</t>
+    <t>猪王之心</t>
   </si>
   <si>
     <t>生命倍率</t>
   </si>
   <si>
-    <t>猪王之甲</t>
+    <t>蝎王宝甲</t>
   </si>
   <si>
     <t>防御基础</t>
   </si>
   <si>
-    <t>蝎王之甲</t>
+    <t>沃玛宝甲</t>
   </si>
   <si>
     <t>防御比例</t>
   </si>
   <si>
-    <t>沃玛宝剑</t>
+    <t>沃玛号角</t>
   </si>
   <si>
     <t>物攻基础</t>
   </si>
   <si>
-    <t>沃玛号角</t>
+    <t>祖玛头像</t>
   </si>
   <si>
     <t>魔法基础</t>
@@ -110,7 +110,7 @@
     <t>道术基础</t>
   </si>
   <si>
-    <t>虹猪之甲</t>
+    <t>虹猪宝甲</t>
   </si>
   <si>
     <t>树妖之心</t>
@@ -152,7 +152,7 @@
     <t>减伤倍率</t>
   </si>
   <si>
-    <t>龙神之爪</t>
+    <t>龙神利爪</t>
   </si>
   <si>
     <t>物攻倍率</t>
@@ -195,7 +195,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,16 +208,9 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -692,143 +685,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1151,10 +1143,10 @@
   <dimension ref="C3:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
@@ -1243,626 +1235,626 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>40000051</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>40000051</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>800000000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>800000000</v>
       </c>
-      <c r="I6" s="3">
-        <v>4</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>40000052</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>40000052</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>100</v>
       </c>
-      <c r="I7" s="3">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>40000053</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>40000053</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>2003</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>40000054</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>40000054</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>80000000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>80000000</v>
       </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>40000055</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>40000055</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>16</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>40000056</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>40000056</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>150000000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>150000000</v>
       </c>
-      <c r="I11" s="3">
-        <v>4</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>40000057</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>40000057</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>150000000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>150000000</v>
       </c>
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:10">
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>40000058</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>40000058</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
         <v>150000000</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>150000000</v>
       </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:10">
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>40000059</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>40000059</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>100000000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>100000000</v>
       </c>
-      <c r="I14" s="3">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:10">
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>40000060</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>40000060</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>1000000000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>1000000000</v>
       </c>
-      <c r="I15" s="3">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:10">
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>40000061</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>40000061</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>15</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>150</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>150</v>
       </c>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:10">
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>40000062</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>40000062</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>2003</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>8</v>
       </c>
-      <c r="I17" s="3">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:10">
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>40000063</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>40000063</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>33</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>10</v>
       </c>
-      <c r="I18" s="3">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:10">
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>40000064</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>40000064</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>34</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>10</v>
       </c>
-      <c r="I19" s="3">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:10">
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>40000065</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>40000065</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>35</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>10</v>
       </c>
-      <c r="I20" s="3">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:10">
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>40000066</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>40000066</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>1500000000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>1500000000</v>
       </c>
-      <c r="I21" s="3">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:10">
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>40000067</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>40000067</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>2003</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:10">
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>40000068</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>40000068</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>2011</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>10</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>10</v>
       </c>
-      <c r="I23" s="3">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:10">
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>40000069</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>40000069</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>2004</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>5</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:10">
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>40000070</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>40000070</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>2005</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>5</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <v>5</v>
       </c>
-      <c r="I25" s="3">
-        <v>4</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:10">
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>40000071</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>40000071</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>2006</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>5</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>5</v>
       </c>
-      <c r="I26" s="3">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:10">
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>40000072</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>40000072</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>2003</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>20</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1">
         <v>20</v>
       </c>
-      <c r="I27" s="3">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:10">
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>40000073</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>40000073</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>2002</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <v>10</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <v>10</v>
       </c>
-      <c r="I28" s="3">
-        <v>4</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:10">
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>40000074</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>40000074</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>2001</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>攻击倍率</t>
+  </si>
+  <si>
+    <t>梦魇冰晶</t>
+  </si>
+  <si>
+    <t>梦魇蝠翼</t>
+  </si>
+  <si>
+    <t>梦魇魂火</t>
+  </si>
+  <si>
+    <t>梦魇腐肉</t>
+  </si>
+  <si>
+    <t>梦魇蛇胆</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J29"/>
+  <dimension ref="C3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1858,6 +1873,136 @@
         <v>51</v>
       </c>
     </row>
+    <row r="30" customHeight="1" spans="3:10">
+      <c r="C30" s="1">
+        <v>40000075</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40000075</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:10">
+      <c r="C31" s="1">
+        <v>40000076</v>
+      </c>
+      <c r="D31" s="1">
+        <v>40000076</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:10">
+      <c r="C32" s="1">
+        <v>40000077</v>
+      </c>
+      <c r="D32" s="1">
+        <v>40000077</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:10">
+      <c r="C33" s="1">
+        <v>40000078</v>
+      </c>
+      <c r="D33" s="1">
+        <v>40000078</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:10">
+      <c r="C34" s="1">
+        <v>40000079</v>
+      </c>
+      <c r="D34" s="1">
+        <v>40000079</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1157,8 +1157,8 @@
   <sheetPr/>
   <dimension ref="C3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1240,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>8</v>
@@ -1884,19 +1884,19 @@
         <v>52</v>
       </c>
       <c r="F30" s="1">
-        <v>2005</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>5</v>
+        <v>5000000000</v>
       </c>
       <c r="H30" s="1">
-        <v>5</v>
+        <v>5000000000</v>
       </c>
       <c r="I30" s="1">
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:10">
@@ -1910,19 +1910,19 @@
         <v>53</v>
       </c>
       <c r="F31" s="1">
-        <v>2006</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="H31" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="I31" s="1">
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:10">
@@ -1939,10 +1939,10 @@
         <v>2003</v>
       </c>
       <c r="G32" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H32" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1">
         <v>4</v>
@@ -1962,19 +1962,19 @@
         <v>55</v>
       </c>
       <c r="F33" s="1">
-        <v>2002</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>10</v>
+        <v>500000000</v>
       </c>
       <c r="H33" s="1">
-        <v>10</v>
+        <v>500000000</v>
       </c>
       <c r="I33" s="1">
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:10">
@@ -1988,19 +1988,19 @@
         <v>56</v>
       </c>
       <c r="F34" s="1">
-        <v>2001</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="H34" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="I34" s="1">
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1157,8 +1157,8 @@
   <sheetPr/>
   <dimension ref="C3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -1158,7 +1158,7 @@
   <dimension ref="C3:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1942,7 +1942,7 @@
         <v>25</v>
       </c>
       <c r="H32" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I32" s="1">
         <v>4</v>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>梦魇蛇胆</t>
+  </si>
+  <si>
+    <t>梦魇狼爪</t>
+  </si>
+  <si>
+    <t>伤害增加</t>
+  </si>
+  <si>
+    <t>梦魇虫皮</t>
+  </si>
+  <si>
+    <t>攻击比例</t>
+  </si>
+  <si>
+    <t>梦魇鹰羽</t>
+  </si>
+  <si>
+    <t>梦魇虫角</t>
+  </si>
+  <si>
+    <t>梦魇蜈膏</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J34"/>
+  <dimension ref="C3:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2003,6 +2024,136 @@
         <v>20</v>
       </c>
     </row>
+    <row r="35" customHeight="1" spans="3:10">
+      <c r="C35" s="1">
+        <v>40000080</v>
+      </c>
+      <c r="D35" s="1">
+        <v>40000080</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:10">
+      <c r="C36" s="1">
+        <v>40000081</v>
+      </c>
+      <c r="D36" s="1">
+        <v>40000081</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="1">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1">
+        <v>200</v>
+      </c>
+      <c r="H36" s="1">
+        <v>200</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:10">
+      <c r="C37" s="1">
+        <v>40000082</v>
+      </c>
+      <c r="D37" s="1">
+        <v>40000082</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G37" s="1">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:10">
+      <c r="C38" s="1">
+        <v>40000083</v>
+      </c>
+      <c r="D38" s="1">
+        <v>40000083</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:10">
+      <c r="C39" s="1">
+        <v>40000084</v>
+      </c>
+      <c r="D39" s="1">
+        <v>40000084</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -219,6 +219,21 @@
   </si>
   <si>
     <t>梦魇蜈膏</t>
+  </si>
+  <si>
+    <t>梦魇钳爪</t>
+  </si>
+  <si>
+    <t>梦魇龙皮</t>
+  </si>
+  <si>
+    <t>梦魇猪皮</t>
+  </si>
+  <si>
+    <t>梦魇猪心</t>
+  </si>
+  <si>
+    <t>梦魇蝎皮</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J39"/>
+  <dimension ref="C3:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2154,6 +2169,136 @@
         <v>46</v>
       </c>
     </row>
+    <row r="40" customHeight="1" spans="3:10">
+      <c r="C40" s="1">
+        <v>40000085</v>
+      </c>
+      <c r="D40" s="1">
+        <v>40000085</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="1">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1">
+        <v>15</v>
+      </c>
+      <c r="H40" s="1">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:10">
+      <c r="C41" s="1">
+        <v>40000086</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40000086</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="1">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1">
+        <v>200</v>
+      </c>
+      <c r="H41" s="1">
+        <v>200</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:10">
+      <c r="C42" s="1">
+        <v>40000087</v>
+      </c>
+      <c r="D42" s="1">
+        <v>40000087</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G42" s="1">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:10">
+      <c r="C43" s="1">
+        <v>40000088</v>
+      </c>
+      <c r="D43" s="1">
+        <v>40000088</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G43" s="1">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1">
+        <v>6</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:10">
+      <c r="C44" s="1">
+        <v>40000089</v>
+      </c>
+      <c r="D44" s="1">
+        <v>40000089</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1">
+        <v>6</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -1193,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="C3:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:J44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2180,19 +2180,19 @@
         <v>64</v>
       </c>
       <c r="F40" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G40" s="1">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="H40" s="1">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="I40" s="1">
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:10">
@@ -2206,19 +2206,19 @@
         <v>65</v>
       </c>
       <c r="F41" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H41" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I41" s="1">
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:10">
@@ -2232,19 +2232,19 @@
         <v>66</v>
       </c>
       <c r="F42" s="1">
-        <v>2004</v>
+        <v>33</v>
       </c>
       <c r="G42" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H42" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I42" s="1">
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:10">
@@ -2258,19 +2258,19 @@
         <v>67</v>
       </c>
       <c r="F43" s="1">
-        <v>2005</v>
+        <v>34</v>
       </c>
       <c r="G43" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H43" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I43" s="1">
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:10">
@@ -2284,19 +2284,19 @@
         <v>68</v>
       </c>
       <c r="F44" s="1">
-        <v>2006</v>
+        <v>35</v>
       </c>
       <c r="G44" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H44" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1">
         <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -221,7 +221,7 @@
     <t>梦魇蜈膏</t>
   </si>
   <si>
-    <t>梦魇钳爪</t>
+    <t>梦魇虫心</t>
   </si>
   <si>
     <t>梦魇龙皮</t>
@@ -1193,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="C3:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2232,19 +2232,19 @@
         <v>66</v>
       </c>
       <c r="F42" s="1">
-        <v>33</v>
+        <v>2002</v>
       </c>
       <c r="G42" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H42" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I42" s="1">
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:10">
@@ -2258,19 +2258,19 @@
         <v>67</v>
       </c>
       <c r="F43" s="1">
-        <v>34</v>
+        <v>2003</v>
       </c>
       <c r="G43" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H43" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I43" s="1">
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:10">
@@ -2284,19 +2284,19 @@
         <v>68</v>
       </c>
       <c r="F44" s="1">
-        <v>35</v>
+        <v>2011</v>
       </c>
       <c r="G44" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H44" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I44" s="1">
         <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -1193,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="C3:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -234,6 +234,21 @@
   </si>
   <si>
     <t>梦魇蝎皮</t>
+  </si>
+  <si>
+    <t>噩梦宝甲</t>
+  </si>
+  <si>
+    <t>噩梦号角</t>
+  </si>
+  <si>
+    <t>噩梦雕像</t>
+  </si>
+  <si>
+    <t>噩梦权杖</t>
+  </si>
+  <si>
+    <t>噩梦獠牙</t>
   </si>
 </sst>
 </file>
@@ -1191,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J44"/>
+  <dimension ref="C3:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2299,6 +2314,136 @@
         <v>40</v>
       </c>
     </row>
+    <row r="45" customHeight="1" spans="3:10">
+      <c r="C45" s="1">
+        <v>40000090</v>
+      </c>
+      <c r="D45" s="1">
+        <v>40000090</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:10">
+      <c r="C46" s="1">
+        <v>40000091</v>
+      </c>
+      <c r="D46" s="1">
+        <v>40000091</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:10">
+      <c r="C47" s="1">
+        <v>40000092</v>
+      </c>
+      <c r="D47" s="1">
+        <v>40000092</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:10">
+      <c r="C48" s="1">
+        <v>40000093</v>
+      </c>
+      <c r="D48" s="1">
+        <v>40000093</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G48" s="1">
+        <v>20</v>
+      </c>
+      <c r="H48" s="1">
+        <v>20</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:10">
+      <c r="C49" s="1">
+        <v>40000094</v>
+      </c>
+      <c r="D49" s="1">
+        <v>40000094</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G49" s="1">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1">
+        <v>20</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>噩梦獠牙</t>
+  </si>
+  <si>
+    <t>噩梦树心</t>
+  </si>
+  <si>
+    <t>噩梦魔心</t>
+  </si>
+  <si>
+    <t>噩梦尸心</t>
+  </si>
+  <si>
+    <t>噩梦法杖</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J49"/>
+  <dimension ref="C3:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2444,9 +2456,139 @@
         <v>16</v>
       </c>
     </row>
+    <row r="50" customHeight="1" spans="3:10">
+      <c r="C50" s="1">
+        <v>40000095</v>
+      </c>
+      <c r="D50" s="1">
+        <v>40000095</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="1">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1">
+        <v>500</v>
+      </c>
+      <c r="H50" s="1">
+        <v>500</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:10">
+      <c r="C51" s="1">
+        <v>40000096</v>
+      </c>
+      <c r="D51" s="1">
+        <v>40000096</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="1">
+        <v>16</v>
+      </c>
+      <c r="G51" s="1">
+        <v>500</v>
+      </c>
+      <c r="H51" s="1">
+        <v>500</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:10">
+      <c r="C52" s="1">
+        <v>40000097</v>
+      </c>
+      <c r="D52" s="1">
+        <v>40000097</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G52" s="1">
+        <v>25</v>
+      </c>
+      <c r="H52" s="1">
+        <v>25</v>
+      </c>
+      <c r="I52" s="1">
+        <v>4</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:10">
+      <c r="C53" s="1">
+        <v>40000098</v>
+      </c>
+      <c r="D53" s="1">
+        <v>40000098</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G53" s="1">
+        <v>25</v>
+      </c>
+      <c r="H53" s="1">
+        <v>25</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:10">
+      <c r="C54" s="1">
+        <v>40000099</v>
+      </c>
+      <c r="D54" s="1">
+        <v>40000099</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>4</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 D3 E3 D4 D5 C4:C5 E4:E5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>Id</t>
   </si>
@@ -245,22 +245,25 @@
     <t>噩梦雕像</t>
   </si>
   <si>
+    <t>噩梦神像</t>
+  </si>
+  <si>
+    <t>噩梦獠牙</t>
+  </si>
+  <si>
+    <t>噩梦树心</t>
+  </si>
+  <si>
+    <t>噩梦魔心</t>
+  </si>
+  <si>
+    <t>噩梦尸心</t>
+  </si>
+  <si>
+    <t>噩梦法杖</t>
+  </si>
+  <si>
     <t>噩梦权杖</t>
-  </si>
-  <si>
-    <t>噩梦獠牙</t>
-  </si>
-  <si>
-    <t>噩梦树心</t>
-  </si>
-  <si>
-    <t>噩梦魔心</t>
-  </si>
-  <si>
-    <t>噩梦尸心</t>
-  </si>
-  <si>
-    <t>噩梦法杖</t>
   </si>
 </sst>
 </file>
@@ -1220,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="C3:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2568,7 +2571,7 @@
         <v>40000099</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F54" s="1">
         <v>2001</v>

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>Id</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>噩梦权杖</t>
+  </si>
+  <si>
+    <t>噩梦战锤</t>
+  </si>
+  <si>
+    <t>噩梦血核</t>
+  </si>
+  <si>
+    <t>噩梦魔核</t>
+  </si>
+  <si>
+    <t>噩梦龙甲</t>
+  </si>
+  <si>
+    <t>噩梦龙爪</t>
   </si>
 </sst>
 </file>
@@ -1221,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J54"/>
+  <dimension ref="C3:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2589,6 +2604,136 @@
         <v>51</v>
       </c>
     </row>
+    <row r="55" customHeight="1" spans="3:10">
+      <c r="C55" s="1">
+        <v>40000100</v>
+      </c>
+      <c r="D55" s="1">
+        <v>40000100</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1">
+        <v>4</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:10">
+      <c r="C56" s="1">
+        <v>40000101</v>
+      </c>
+      <c r="D56" s="1">
+        <v>40000101</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G56" s="1">
+        <v>25</v>
+      </c>
+      <c r="H56" s="1">
+        <v>25</v>
+      </c>
+      <c r="I56" s="1">
+        <v>4</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:10">
+      <c r="C57" s="1">
+        <v>40000102</v>
+      </c>
+      <c r="D57" s="1">
+        <v>40000102</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G57" s="1">
+        <v>25</v>
+      </c>
+      <c r="H57" s="1">
+        <v>25</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:10">
+      <c r="C58" s="1">
+        <v>40000103</v>
+      </c>
+      <c r="D58" s="1">
+        <v>40000103</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G58" s="1">
+        <v>10</v>
+      </c>
+      <c r="H58" s="1">
+        <v>10</v>
+      </c>
+      <c r="I58" s="1">
+        <v>4</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:10">
+      <c r="C59" s="1">
+        <v>40000104</v>
+      </c>
+      <c r="D59" s="1">
+        <v>40000104</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E5" errorStyle="warning">

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
   <si>
     <t>Id</t>
   </si>
@@ -279,6 +279,114 @@
   </si>
   <si>
     <t>噩梦龙爪</t>
+  </si>
+  <si>
+    <t>地狱鸡爪</t>
+  </si>
+  <si>
+    <t>地狱鹿茸</t>
+  </si>
+  <si>
+    <t>地狱草帽</t>
+  </si>
+  <si>
+    <t>地狱猫爪</t>
+  </si>
+  <si>
+    <t>地狱花朵</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>地狱冰晶</t>
+  </si>
+  <si>
+    <t>地狱蝠翼</t>
+  </si>
+  <si>
+    <t>地狱魂火</t>
+  </si>
+  <si>
+    <t>地狱腐肉</t>
+  </si>
+  <si>
+    <t>地狱蛇胆</t>
+  </si>
+  <si>
+    <t>地狱狼爪</t>
+  </si>
+  <si>
+    <t>地狱虫皮</t>
+  </si>
+  <si>
+    <t>地狱鹰羽</t>
+  </si>
+  <si>
+    <t>地狱虫角</t>
+  </si>
+  <si>
+    <t>地狱蜈膏</t>
+  </si>
+  <si>
+    <t>地狱虫心</t>
+  </si>
+  <si>
+    <t>地狱龙皮</t>
+  </si>
+  <si>
+    <t>地狱猪皮</t>
+  </si>
+  <si>
+    <t>地狱猪心</t>
+  </si>
+  <si>
+    <t>地狱蝎皮</t>
+  </si>
+  <si>
+    <t>地狱宝甲</t>
+  </si>
+  <si>
+    <t>地狱号角</t>
+  </si>
+  <si>
+    <t>地狱雕像</t>
+  </si>
+  <si>
+    <t>地狱神像</t>
+  </si>
+  <si>
+    <t>地狱獠牙</t>
+  </si>
+  <si>
+    <t>地狱树心</t>
+  </si>
+  <si>
+    <t>地狱魔心</t>
+  </si>
+  <si>
+    <t>地狱尸心</t>
+  </si>
+  <si>
+    <t>地狱法杖</t>
+  </si>
+  <si>
+    <t>地狱权杖</t>
+  </si>
+  <si>
+    <t>地狱战锤</t>
+  </si>
+  <si>
+    <t>地狱血核</t>
+  </si>
+  <si>
+    <t>地狱魔核</t>
+  </si>
+  <si>
+    <t>地狱龙甲</t>
+  </si>
+  <si>
+    <t>地狱龙爪</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J59"/>
+  <dimension ref="A3:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2734,6 +2842,646 @@
         <v>51</v>
       </c>
     </row>
+    <row r="60" customHeight="1" spans="3:10">
+      <c r="C60" s="1">
+        <v>40000105</v>
+      </c>
+      <c r="D60" s="1">
+        <v>40000105</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G60" s="1">
+        <v>7</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:10">
+      <c r="C61" s="1">
+        <v>40000106</v>
+      </c>
+      <c r="D61" s="1">
+        <v>40000106</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G61" s="1">
+        <v>7</v>
+      </c>
+      <c r="H61" s="1">
+        <v>7</v>
+      </c>
+      <c r="I61" s="1">
+        <v>4</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:10">
+      <c r="C62" s="1">
+        <v>40000107</v>
+      </c>
+      <c r="D62" s="1">
+        <v>40000107</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G62" s="1">
+        <v>7</v>
+      </c>
+      <c r="H62" s="1">
+        <v>7</v>
+      </c>
+      <c r="I62" s="1">
+        <v>4</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:10">
+      <c r="C63" s="1">
+        <v>40000108</v>
+      </c>
+      <c r="D63" s="1">
+        <v>40000108</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G63" s="1">
+        <v>30</v>
+      </c>
+      <c r="H63" s="1">
+        <v>30</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:10">
+      <c r="C64" s="1">
+        <v>40000109</v>
+      </c>
+      <c r="D64" s="1">
+        <v>40000109</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G64" s="1">
+        <v>30</v>
+      </c>
+      <c r="H64" s="1">
+        <v>30</v>
+      </c>
+      <c r="I64" s="1">
+        <v>4</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="1">
+        <v>40000110</v>
+      </c>
+      <c r="D65" s="1">
+        <v>40000075</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="1">
+        <v>40000111</v>
+      </c>
+      <c r="D66" s="1">
+        <v>40000076</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="1">
+        <v>40000112</v>
+      </c>
+      <c r="D67" s="1">
+        <v>40000077</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="1">
+        <v>40000113</v>
+      </c>
+      <c r="D68" s="1">
+        <v>40000078</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="1">
+        <v>40000114</v>
+      </c>
+      <c r="D69" s="1">
+        <v>40000079</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1">
+        <v>40000115</v>
+      </c>
+      <c r="D70" s="1">
+        <v>40000080</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1">
+        <v>40000116</v>
+      </c>
+      <c r="D71" s="1">
+        <v>40000081</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="1">
+        <v>40000117</v>
+      </c>
+      <c r="D72" s="1">
+        <v>40000082</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="1">
+        <v>40000118</v>
+      </c>
+      <c r="D73" s="1">
+        <v>40000083</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="1">
+        <v>40000119</v>
+      </c>
+      <c r="D74" s="1">
+        <v>40000084</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="1">
+        <v>40000120</v>
+      </c>
+      <c r="D75" s="1">
+        <v>40000085</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="1">
+        <v>40000121</v>
+      </c>
+      <c r="D76" s="1">
+        <v>40000086</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="1">
+        <v>40000122</v>
+      </c>
+      <c r="D77" s="1">
+        <v>40000087</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="1">
+        <v>40000123</v>
+      </c>
+      <c r="D78" s="1">
+        <v>40000088</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="1">
+        <v>40000124</v>
+      </c>
+      <c r="D79" s="1">
+        <v>40000089</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="1">
+        <v>40000125</v>
+      </c>
+      <c r="D80" s="1">
+        <v>40000090</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="1">
+        <v>40000126</v>
+      </c>
+      <c r="D81" s="1">
+        <v>40000091</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="1">
+        <v>40000127</v>
+      </c>
+      <c r="D82" s="1">
+        <v>40000092</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="1">
+        <v>40000128</v>
+      </c>
+      <c r="D83" s="1">
+        <v>40000093</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="1">
+        <v>40000129</v>
+      </c>
+      <c r="D84" s="1">
+        <v>40000094</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="1">
+        <v>40000130</v>
+      </c>
+      <c r="D85" s="1">
+        <v>40000095</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="1">
+        <v>40000131</v>
+      </c>
+      <c r="D86" s="1">
+        <v>40000096</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="1">
+        <v>40000132</v>
+      </c>
+      <c r="D87" s="1">
+        <v>40000097</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="1">
+        <v>40000133</v>
+      </c>
+      <c r="D88" s="1">
+        <v>40000098</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="1">
+        <v>40000134</v>
+      </c>
+      <c r="D89" s="1">
+        <v>40000099</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1">
+        <v>40000135</v>
+      </c>
+      <c r="D90" s="1">
+        <v>40000100</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="1">
+        <v>40000136</v>
+      </c>
+      <c r="D91" s="1">
+        <v>40000101</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="1">
+        <v>40000137</v>
+      </c>
+      <c r="D92" s="1">
+        <v>40000102</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="1">
+        <v>40000138</v>
+      </c>
+      <c r="D93" s="1">
+        <v>40000103</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="1">
+        <v>40000139</v>
+      </c>
+      <c r="D94" s="1">
+        <v>40000104</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E5" errorStyle="warning">

--- a/Excel/HalidomConfig.xlsx
+++ b/Excel/HalidomConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -296,22 +296,25 @@
     <t>地狱花朵</t>
   </si>
   <si>
+    <t>地狱冰晶</t>
+  </si>
+  <si>
+    <t>地狱蝠翼</t>
+  </si>
+  <si>
+    <t>增伤倍率</t>
+  </si>
+  <si>
+    <t>地狱魂火</t>
+  </si>
+  <si>
+    <t>地狱腐肉</t>
+  </si>
+  <si>
+    <t>地狱蛇胆</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>地狱冰晶</t>
-  </si>
-  <si>
-    <t>地狱蝠翼</t>
-  </si>
-  <si>
-    <t>地狱魂火</t>
-  </si>
-  <si>
-    <t>地狱腐肉</t>
-  </si>
-  <si>
-    <t>地狱蛇胆</t>
   </si>
   <si>
     <t>地狱狼爪</t>
@@ -1346,8 +1349,8 @@
   <sheetPr/>
   <dimension ref="A3:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2972,13 +2975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>89</v>
-      </c>
+    <row r="65" customHeight="1" spans="3:10">
       <c r="C65" s="1">
         <v>40000110</v>
       </c>
@@ -2986,16 +2983,25 @@
         <v>40000075</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="F65" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G65" s="1">
+        <v>7</v>
+      </c>
+      <c r="H65" s="1">
+        <v>7</v>
+      </c>
+      <c r="I65" s="1">
+        <v>4</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:10">
       <c r="C66" s="1">
         <v>40000111</v>
       </c>
@@ -3003,16 +3009,25 @@
         <v>40000076</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G66" s="1">
+        <v>7</v>
+      </c>
+      <c r="H66" s="1">
+        <v>7</v>
+      </c>
+      <c r="I66" s="1">
+        <v>4</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>89</v>
-      </c>
+    <row r="67" customHeight="1" spans="3:10">
       <c r="C67" s="1">
         <v>40000112</v>
       </c>
@@ -3022,14 +3037,23 @@
       <c r="E67" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="F67" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G67" s="1">
+        <v>10</v>
+      </c>
+      <c r="H67" s="1">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1">
+        <v>4</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:10">
       <c r="C68" s="1">
         <v>40000113</v>
       </c>
@@ -3039,14 +3063,23 @@
       <c r="E68" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="F68" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G68" s="1">
+        <v>30</v>
+      </c>
+      <c r="H68" s="1">
+        <v>30</v>
+      </c>
+      <c r="I68" s="1">
+        <v>4</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:10">
       <c r="C69" s="1">
         <v>40000114</v>
       </c>
@@ -3056,13 +3089,28 @@
       <c r="E69" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="F69" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G69" s="1">
+        <v>30</v>
+      </c>
+      <c r="H69" s="1">
+        <v>30</v>
+      </c>
+      <c r="I69" s="1">
+        <v>4</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="70" customHeight="1" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C70" s="1">
         <v>40000115</v>
@@ -3071,15 +3119,15 @@
         <v>40000080</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C71" s="1">
         <v>40000116</v>
@@ -3088,15 +3136,15 @@
         <v>40000081</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C72" s="1">
         <v>40000117</v>
@@ -3105,15 +3153,15 @@
         <v>40000082</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C73" s="1">
         <v>40000118</v>
@@ -3122,15 +3170,15 @@
         <v>40000083</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C74" s="1">
         <v>40000119</v>
@@ -3139,15 +3187,15 @@
         <v>40000084</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C75" s="1">
         <v>40000120</v>
@@ -3156,15 +3204,15 @@
         <v>40000085</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C76" s="1">
         <v>40000121</v>
@@ -3173,15 +3221,15 @@
         <v>40000086</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C77" s="1">
         <v>40000122</v>
@@ -3190,15 +3238,15 @@
         <v>40000087</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C78" s="1">
         <v>40000123</v>
@@ -3207,15 +3255,15 @@
         <v>40000088</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C79" s="1">
         <v>40000124</v>
@@ -3224,15 +3272,15 @@
         <v>40000089</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C80" s="1">
         <v>40000125</v>
@@ -3241,15 +3289,15 @@
         <v>40000090</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C81" s="1">
         <v>40000126</v>
@@ -3258,15 +3306,15 @@
         <v>40000091</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>40000127</v>
@@ -3275,15 +3323,15 @@
         <v>40000092</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C83" s="1">
         <v>40000128</v>
@@ -3292,15 +3340,15 @@
         <v>40000093</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C84" s="1">
         <v>40000129</v>
@@ -3309,15 +3357,15 @@
         <v>40000094</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C85" s="1">
         <v>40000130</v>
@@ -3326,15 +3374,15 @@
         <v>40000095</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C86" s="1">
         <v>40000131</v>
@@ -3343,15 +3391,15 @@
         <v>40000096</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C87" s="1">
         <v>40000132</v>
@@ -3360,15 +3408,15 @@
         <v>40000097</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C88" s="1">
         <v>40000133</v>
@@ -3377,15 +3425,15 @@
         <v>40000098</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C89" s="1">
         <v>40000134</v>
@@ -3394,15 +3442,15 @@
         <v>40000099</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C90" s="1">
         <v>40000135</v>
@@ -3411,15 +3459,15 @@
         <v>40000100</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C91" s="1">
         <v>40000136</v>
@@ -3428,15 +3476,15 @@
         <v>40000101</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C92" s="1">
         <v>40000137</v>
@@ -3445,15 +3493,15 @@
         <v>40000102</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C93" s="1">
         <v>40000138</v>
@@ -3462,15 +3510,15 @@
         <v>40000103</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C94" s="1">
         <v>40000139</v>
@@ -3479,7 +3527,7 @@
         <v>40000104</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
